--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -62,10 +62,10 @@
     <t>http://fhir.nmdp.org/ig/cibmtr-reporting/ValueSet/cibmtr-priority-variables-2022 (extensible)</t>
   </si>
   <si>
-    <t>dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ</t>
   </si>
   <si>
     <t>optional</t>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="58">
   <si>
     <t>Profile</t>
   </si>
@@ -47,28 +47,136 @@
     <t>Method</t>
   </si>
   <si>
+    <t>cibmtr-cytogenetics</t>
+  </si>
+  <si>
+    <t>CIBMTR Cytogenetics Profile</t>
+  </si>
+  <si>
+    <t>null#laboratory</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LOINC#69548-6</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>To Be Determined Codes#conclusion-string</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>LOINC#48018-6</t>
+  </si>
+  <si>
+    <t>LOINC#48001-2</t>
+  </si>
+  <si>
+    <t>LOINC#62374-4</t>
+  </si>
+  <si>
+    <t>LOINC#48004-6</t>
+  </si>
+  <si>
+    <t>LOINC#81290-9</t>
+  </si>
+  <si>
+    <t>LOINC#81291-7</t>
+  </si>
+  <si>
+    <t>LOINC#48013-7</t>
+  </si>
+  <si>
+    <t>LOINC#51958-7</t>
+  </si>
+  <si>
+    <t>LOINC#81254-5</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>LOINC#81302-2</t>
+  </si>
+  <si>
+    <t>LOINC#81301-4</t>
+  </si>
+  <si>
+    <t>LOINC#92822-6</t>
+  </si>
+  <si>
+    <t>LOINC#69547-8</t>
+  </si>
+  <si>
+    <t>LOINC#69551-0</t>
+  </si>
+  <si>
+    <t>LOINC#48019-4</t>
+  </si>
+  <si>
+    <t>LOINC#48002-0</t>
+  </si>
+  <si>
+    <t>LOINC#81258-6</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>LOINC#82121-5</t>
+  </si>
+  <si>
+    <t>LOINC#53034-5</t>
+  </si>
+  <si>
+    <t>To Be Determined Codes#variant-inheritance</t>
+  </si>
+  <si>
+    <t>LOINC#81252-9</t>
+  </si>
+  <si>
+    <t>LOINC#48000-4</t>
+  </si>
+  <si>
+    <t>LOINC#48005-3</t>
+  </si>
+  <si>
+    <t>LOINC#48006-1</t>
+  </si>
+  <si>
+    <t>To Be Determined Codes#molecular-consequence</t>
+  </si>
+  <si>
+    <t>LOINC#82155-3</t>
+  </si>
+  <si>
+    <t>To Be Determined Codes#variant-confidence-status</t>
+  </si>
+  <si>
     <t>cibmtr-obs-priority-variables</t>
   </si>
   <si>
     <t>CIBMTR Observation Laboratory Results: Priority Variables</t>
   </si>
   <si>
-    <t>null#laboratory</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>http://fhir.nmdp.org/ig/cibmtr-reporting/ValueSet/cibmtr-priority-variables-2022 (extensible)</t>
   </si>
   <si>
-    <t>dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ</t>
   </si>
   <si>
     <t>cibmtr-observation-lab</t>
@@ -211,7 +319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -266,10 +374,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s" s="2">
         <v>16</v>
@@ -289,36 +397,1051 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="F3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="I3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="D31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="58">
   <si>
     <t>Profile</t>
   </si>
@@ -47,18 +47,129 @@
     <t>Method</t>
   </si>
   <si>
+    <t>cibmtr-cytogenetics</t>
+  </si>
+  <si>
+    <t>CIBMTR Cytogenetics Profile</t>
+  </si>
+  <si>
+    <t>null#laboratory</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LOINC#69548-6</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>To Be Determined Codes#conclusion-string</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>LOINC#48018-6</t>
+  </si>
+  <si>
+    <t>LOINC#48001-2</t>
+  </si>
+  <si>
+    <t>LOINC#62374-4</t>
+  </si>
+  <si>
+    <t>LOINC#48004-6</t>
+  </si>
+  <si>
+    <t>LOINC#81290-9</t>
+  </si>
+  <si>
+    <t>LOINC#81291-7</t>
+  </si>
+  <si>
+    <t>LOINC#48013-7</t>
+  </si>
+  <si>
+    <t>LOINC#51958-7</t>
+  </si>
+  <si>
+    <t>LOINC#81254-5</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>LOINC#81302-2</t>
+  </si>
+  <si>
+    <t>LOINC#81301-4</t>
+  </si>
+  <si>
+    <t>LOINC#92822-6</t>
+  </si>
+  <si>
+    <t>LOINC#69547-8</t>
+  </si>
+  <si>
+    <t>LOINC#69551-0</t>
+  </si>
+  <si>
+    <t>LOINC#48019-4</t>
+  </si>
+  <si>
+    <t>LOINC#48002-0</t>
+  </si>
+  <si>
+    <t>LOINC#81258-6</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>LOINC#82121-5</t>
+  </si>
+  <si>
+    <t>LOINC#53034-5</t>
+  </si>
+  <si>
+    <t>To Be Determined Codes#variant-inheritance</t>
+  </si>
+  <si>
+    <t>LOINC#81252-9</t>
+  </si>
+  <si>
+    <t>LOINC#48000-4</t>
+  </si>
+  <si>
+    <t>LOINC#48005-3</t>
+  </si>
+  <si>
+    <t>LOINC#48006-1</t>
+  </si>
+  <si>
+    <t>To Be Determined Codes#molecular-consequence</t>
+  </si>
+  <si>
+    <t>LOINC#82155-3</t>
+  </si>
+  <si>
+    <t>To Be Determined Codes#variant-confidence-status</t>
+  </si>
+  <si>
     <t>cibmtr-obs-priority-variables</t>
   </si>
   <si>
     <t>CIBMTR Observation Laboratory Results: Priority Variables</t>
   </si>
   <si>
-    <t>null#laboratory</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>http://fhir.nmdp.org/ig/cibmtr-reporting/ValueSet/cibmtr-priority-variables-2022 (extensible)</t>
   </si>
   <si>
@@ -66,9 +177,6 @@
   </si>
   <si>
     <t>Quantityĵ, CodeableConceptĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
   </si>
   <si>
     <t>cibmtr-observation-lab</t>
@@ -211,7 +319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -266,10 +374,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s" s="2">
         <v>16</v>
@@ -289,36 +397,1051 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="F3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="I3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="D31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -307,10 +307,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
